--- a/Reports/heart/heart_distcorrgan_100_1.xlsx
+++ b/Reports/heart/heart_distcorrgan_100_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1009</v>
+        <v>-0.1019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0153</v>
+        <v>-0.1019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0305</v>
+        <v>0.8085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9545</v>
+        <v>1.1377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0431</v>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9245</v>
+        <v>1.4408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0202</v>
+        <v>-0.1011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0364</v>
+        <v>0.8294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.026</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0001</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6576</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="13">
